--- a/Assets/GameSet/游戏设定.xlsx
+++ b/Assets/GameSet/游戏设定.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProject\XX\Assets\GameSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4ABD13-3450-4BBC-933C-59D8D24E52E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F956F1B9-D89A-44C2-877F-30729EDFEB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="界面" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="114">
   <si>
     <t>开始修炼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -263,10 +263,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>游戏界面1--常规</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>战斗方式--参考Q宠大乐斗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -470,6 +466,22 @@
   </si>
   <si>
     <t>mp  80/100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏界面1--养成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击伤害波动范围为90%~110%，基础闪避率为20%，基础暴击率为20%，暴击倍率为150%，无消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法宝攻击伤害波动范围为100%~120%，基础闪避率为15%，基础暴击率为10%，暴击倍率为200%，消耗少量法力值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术攻击伤害波动范围为95%~105%，基础闪避率为10%，无法暴击，消耗一定的法力值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -695,63 +707,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -761,12 +716,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -776,6 +725,69 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1184,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C4:V27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1196,10 +1208,10 @@
   <sheetData>
     <row r="4" spans="3:22" x14ac:dyDescent="0.25">
       <c r="R4" t="s">
+        <v>94</v>
+      </c>
+      <c r="U4" t="s">
         <v>95</v>
-      </c>
-      <c r="U4" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="5" spans="3:22" x14ac:dyDescent="0.25">
@@ -1211,19 +1223,19 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="4"/>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="N5" s="18"/>
-      <c r="O5" s="19"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="38"/>
       <c r="P5" s="4"/>
-      <c r="R5" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="38" t="s">
-        <v>94</v>
+      <c r="R5" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="31" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="3:22" x14ac:dyDescent="0.25">
@@ -1235,16 +1247,16 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="6"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="22"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="41"/>
       <c r="P6" s="6"/>
-      <c r="R6" s="42" t="s">
-        <v>106</v>
+      <c r="R6" s="21" t="s">
+        <v>105</v>
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
-      <c r="U6" s="39"/>
+      <c r="U6" s="32"/>
     </row>
     <row r="7" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C7" s="5"/>
@@ -1264,7 +1276,7 @@
       <c r="T7" s="1"/>
       <c r="U7" s="6"/>
       <c r="V7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="3:22" x14ac:dyDescent="0.25">
@@ -1287,28 +1299,28 @@
     </row>
     <row r="9" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C9" s="5"/>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="24"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="6"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="29" t="s">
+      <c r="I9" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="30"/>
+      <c r="J9" s="25"/>
       <c r="K9" s="6"/>
       <c r="M9" s="5"/>
       <c r="N9" s="2"/>
       <c r="O9" s="4"/>
       <c r="P9" s="6"/>
       <c r="R9" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
+        <v>90</v>
+      </c>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
       <c r="U9" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="3:22" x14ac:dyDescent="0.25">
@@ -1317,8 +1329,8 @@
       <c r="E10" s="1"/>
       <c r="F10" s="6"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="32"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="27"/>
       <c r="K10" s="6"/>
       <c r="M10" s="5" t="s">
         <v>6</v>
@@ -1328,13 +1340,13 @@
       <c r="P10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="R10" s="34" t="s">
-        <v>92</v>
+      <c r="R10" s="15" t="s">
+        <v>91</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
-      <c r="U10" s="35" t="s">
-        <v>92</v>
+      <c r="U10" s="16" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="3:22" x14ac:dyDescent="0.25">
@@ -1351,12 +1363,12 @@
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="R11" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S11" s="8"/>
       <c r="T11" s="8"/>
       <c r="U11" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="3:22" x14ac:dyDescent="0.25">
@@ -1383,24 +1395,24 @@
       <c r="E13" s="1"/>
       <c r="F13" s="6"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="J13" s="30"/>
+      <c r="J13" s="25"/>
       <c r="K13" s="6"/>
       <c r="M13" s="5"/>
-      <c r="N13" s="27" t="s">
+      <c r="N13" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="O13" s="28"/>
+      <c r="O13" s="43"/>
       <c r="P13" s="6"/>
       <c r="R13" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
-      <c r="U13" s="43" t="s">
-        <v>107</v>
+      <c r="U13" s="22" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="3:22" x14ac:dyDescent="0.25">
@@ -1409,23 +1421,23 @@
       <c r="E14" s="1"/>
       <c r="F14" s="6"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="32"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="27"/>
       <c r="K14" s="6"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="R14" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
-      <c r="U14" s="43" t="s">
-        <v>109</v>
+      <c r="U14" s="22" t="s">
+        <v>108</v>
       </c>
       <c r="V14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="3:22" x14ac:dyDescent="0.25">
@@ -1470,10 +1482,10 @@
       <c r="E17" s="1"/>
       <c r="F17" s="6"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="29" t="s">
+      <c r="I17" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="J17" s="30"/>
+      <c r="J17" s="25"/>
       <c r="K17" s="6"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
@@ -1486,22 +1498,22 @@
     </row>
     <row r="18" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C18" s="5"/>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="26"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="6"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="32"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="27"/>
       <c r="K18" s="6"/>
       <c r="M18" s="5"/>
       <c r="N18" s="7"/>
       <c r="O18" s="9"/>
       <c r="P18" s="6"/>
       <c r="R18" s="7"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
       <c r="U18" s="9"/>
     </row>
     <row r="19" spans="3:22" x14ac:dyDescent="0.25">
@@ -1524,10 +1536,10 @@
     </row>
     <row r="20" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C20" s="5"/>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="26"/>
+      <c r="E20" s="30"/>
       <c r="F20" s="6"/>
       <c r="H20" s="5"/>
       <c r="I20" s="1"/>
@@ -1538,15 +1550,15 @@
       <c r="O20" s="1"/>
       <c r="P20" s="6"/>
       <c r="R20" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="41" t="s">
-        <v>103</v>
+        <v>99</v>
+      </c>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="20" t="s">
+        <v>102</v>
       </c>
       <c r="V20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="3:22" x14ac:dyDescent="0.25">
@@ -1558,49 +1570,49 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="6"/>
-      <c r="M21" s="14" t="s">
+      <c r="M21" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="14" t="s">
+      <c r="N21" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="O21" s="14" t="s">
+      <c r="O21" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="P21" s="14" t="s">
-        <v>62</v>
+      <c r="P21" s="33" t="s">
+        <v>61</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
-      <c r="U21" s="41" t="s">
-        <v>104</v>
+      <c r="U21" s="20" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C22" s="5"/>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="26"/>
+      <c r="E22" s="30"/>
       <c r="F22" s="6"/>
       <c r="H22" s="5"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="6"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
       <c r="R22" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="S22" s="33"/>
-      <c r="T22" s="33"/>
-      <c r="U22" s="41" t="s">
-        <v>104</v>
+        <v>101</v>
+      </c>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="20" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="3:22" x14ac:dyDescent="0.25">
@@ -1612,10 +1624,10 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="6"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
       <c r="R23" s="5"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -1667,11 +1679,11 @@
       </c>
       <c r="J27" s="23"/>
       <c r="N27" s="23" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="O27" s="23"/>
       <c r="S27" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T27" s="23"/>
     </row>
@@ -1683,11 +1695,6 @@
     <mergeCell ref="P21:P23"/>
     <mergeCell ref="M5:O6"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D27:E27"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="M21:M23"/>
     <mergeCell ref="N21:N23"/>
@@ -1696,6 +1703,11 @@
     <mergeCell ref="I9:J10"/>
     <mergeCell ref="I13:J14"/>
     <mergeCell ref="I17:J18"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D27:E27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1781,7 +1793,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1792,132 +1804,148 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED8077D-7315-4BA8-8DFC-DE276EF8AEC9}">
-  <dimension ref="A2:A28"/>
+  <dimension ref="A2:A31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1925,8 +1953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B05A2C8-7B4B-4409-932D-20829A0212D1}">
   <dimension ref="A3:C38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1941,7 +1969,7 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1949,7 +1977,7 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1957,7 +1985,7 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1965,7 +1993,7 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2020,17 +2048,17 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
